--- a/temp_Last Mile Rates (no api).xlsx
+++ b/temp_Last Mile Rates (no api).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ayyanagouda\Last Mile Rates\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B062567-ADAE-4D7F-B3B8-2B539933F744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8C3DEF-D59D-4B8D-8B1B-B27E5B938CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{092089B2-8674-482C-97E7-5C8C072E36B4}"/>
   </bookViews>
@@ -1124,11 +1124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10451EBB-E7E6-48DF-A4E4-B1A4C8B491EA}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:R208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1207,7 +1206,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>45897</v>
       </c>
@@ -1251,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="O2">
-        <v>97</v>
+        <v>116.39999999999999</v>
       </c>
       <c r="Q2" s="3">
         <v>45870</v>
@@ -1260,7 +1259,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>45897</v>
       </c>
@@ -1304,7 +1303,7 @@
         <v>2</v>
       </c>
       <c r="O3">
-        <v>171</v>
+        <v>205.2</v>
       </c>
       <c r="Q3" s="3">
         <v>45870</v>
@@ -1313,7 +1312,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>45897</v>
       </c>
@@ -1357,7 +1356,7 @@
         <v>3</v>
       </c>
       <c r="O4">
-        <v>233</v>
+        <v>279.59999999999997</v>
       </c>
       <c r="Q4" s="3">
         <v>45870</v>
@@ -1366,7 +1365,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>45897</v>
       </c>
@@ -1410,7 +1409,7 @@
         <v>4</v>
       </c>
       <c r="O5">
-        <v>307</v>
+        <v>368.4</v>
       </c>
       <c r="Q5" s="3">
         <v>45870</v>
@@ -1419,7 +1418,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>45897</v>
       </c>
@@ -1463,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="O6">
-        <v>380</v>
+        <v>456</v>
       </c>
       <c r="Q6" s="3">
         <v>45870</v>
@@ -1472,7 +1471,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>45897</v>
       </c>
@@ -1516,7 +1515,7 @@
         <v>6</v>
       </c>
       <c r="O7">
-        <v>451</v>
+        <v>541.19999999999993</v>
       </c>
       <c r="Q7" s="3">
         <v>45870</v>
@@ -1525,7 +1524,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>45897</v>
       </c>
@@ -1569,7 +1568,7 @@
         <v>7</v>
       </c>
       <c r="O8">
-        <v>521</v>
+        <v>625.19999999999993</v>
       </c>
       <c r="Q8" s="3">
         <v>45870</v>
@@ -1578,7 +1577,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>45897</v>
       </c>
@@ -1622,7 +1621,7 @@
         <v>8</v>
       </c>
       <c r="O9">
-        <v>589</v>
+        <v>706.8</v>
       </c>
       <c r="Q9" s="3">
         <v>45870</v>
@@ -1631,7 +1630,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>45897</v>
       </c>
@@ -1675,7 +1674,7 @@
         <v>9</v>
       </c>
       <c r="O10">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Q10" s="3">
         <v>45870</v>
@@ -1684,7 +1683,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>45897</v>
       </c>
@@ -1728,7 +1727,7 @@
         <v>10</v>
       </c>
       <c r="O11">
-        <v>721</v>
+        <v>865.19999999999993</v>
       </c>
       <c r="Q11" s="3">
         <v>45870</v>
@@ -1737,7 +1736,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>45897</v>
       </c>
@@ -1781,7 +1780,7 @@
         <v>11</v>
       </c>
       <c r="O12">
-        <v>785</v>
+        <v>942</v>
       </c>
       <c r="Q12" s="3">
         <v>45870</v>
@@ -1790,7 +1789,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>45897</v>
       </c>
@@ -1834,7 +1833,7 @@
         <v>12</v>
       </c>
       <c r="O13">
-        <v>847</v>
+        <v>1016.4</v>
       </c>
       <c r="Q13" s="3">
         <v>45870</v>
@@ -1843,7 +1842,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>45897</v>
       </c>
@@ -1887,7 +1886,7 @@
         <v>13</v>
       </c>
       <c r="O14">
-        <v>907</v>
+        <v>1088.3999999999999</v>
       </c>
       <c r="Q14" s="3">
         <v>45870</v>
@@ -1896,7 +1895,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>45897</v>
       </c>
@@ -1940,7 +1939,7 @@
         <v>14</v>
       </c>
       <c r="O15">
-        <v>966</v>
+        <v>1159.2</v>
       </c>
       <c r="Q15" s="3">
         <v>45870</v>
@@ -1949,7 +1948,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>45897</v>
       </c>
@@ -1993,7 +1992,7 @@
         <v>15</v>
       </c>
       <c r="O16">
-        <v>1028</v>
+        <v>1233.5999999999999</v>
       </c>
       <c r="Q16" s="3">
         <v>45870</v>
@@ -2002,7 +2001,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>45897</v>
       </c>
@@ -2046,7 +2045,7 @@
         <v>16</v>
       </c>
       <c r="O17">
-        <v>1079</v>
+        <v>1294.8</v>
       </c>
       <c r="Q17" s="3">
         <v>45870</v>
@@ -2055,7 +2054,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>45897</v>
       </c>
@@ -2099,7 +2098,7 @@
         <v>17</v>
       </c>
       <c r="O18">
-        <v>1134</v>
+        <v>1360.8</v>
       </c>
       <c r="Q18" s="3">
         <v>45870</v>
@@ -2108,7 +2107,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>45897</v>
       </c>
@@ -2152,7 +2151,7 @@
         <v>18</v>
       </c>
       <c r="O19">
-        <v>1186</v>
+        <v>1423.2</v>
       </c>
       <c r="Q19" s="3">
         <v>45870</v>
@@ -2161,7 +2160,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>45897</v>
       </c>
@@ -2205,7 +2204,7 @@
         <v>19</v>
       </c>
       <c r="O20">
-        <v>1238</v>
+        <v>1485.6</v>
       </c>
       <c r="Q20" s="3">
         <v>45870</v>
@@ -2214,7 +2213,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>45897</v>
       </c>
@@ -2258,7 +2257,7 @@
         <v>20</v>
       </c>
       <c r="O21">
-        <v>1287</v>
+        <v>1544.3999999999999</v>
       </c>
       <c r="Q21" s="3">
         <v>45870</v>
@@ -2267,7 +2266,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>45897</v>
       </c>
@@ -2311,7 +2310,7 @@
         <v>21</v>
       </c>
       <c r="O22">
-        <v>1335</v>
+        <v>1602</v>
       </c>
       <c r="Q22" s="3">
         <v>45870</v>
@@ -2320,7 +2319,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>45897</v>
       </c>
@@ -2364,7 +2363,7 @@
         <v>22</v>
       </c>
       <c r="O23">
-        <v>1382</v>
+        <v>1658.3999999999999</v>
       </c>
       <c r="Q23" s="3">
         <v>45870</v>
@@ -2373,7 +2372,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>45897</v>
       </c>
@@ -2417,7 +2416,7 @@
         <v>23</v>
       </c>
       <c r="O24">
-        <v>1427</v>
+        <v>1712.3999999999999</v>
       </c>
       <c r="Q24" s="3">
         <v>45870</v>
@@ -2426,7 +2425,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>45897</v>
       </c>
@@ -2470,7 +2469,7 @@
         <v>24</v>
       </c>
       <c r="O25">
-        <v>1470</v>
+        <v>1764</v>
       </c>
       <c r="Q25" s="3">
         <v>45870</v>
@@ -2479,7 +2478,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>45897</v>
       </c>
@@ -2523,7 +2522,7 @@
         <v>25</v>
       </c>
       <c r="O26">
-        <v>1512</v>
+        <v>1814.3999999999999</v>
       </c>
       <c r="Q26" s="3">
         <v>45870</v>
@@ -2532,7 +2531,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>45897</v>
       </c>
@@ -2576,7 +2575,7 @@
         <v>26</v>
       </c>
       <c r="O27">
-        <v>1552</v>
+        <v>1862.3999999999999</v>
       </c>
       <c r="Q27" s="3">
         <v>45870</v>
@@ -2626,7 +2625,7 @@
         <v>7</v>
       </c>
       <c r="O28">
-        <v>908</v>
+        <v>1089.5999999999999</v>
       </c>
       <c r="Q28" s="3">
         <v>45870</v>
@@ -2735,7 +2734,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>45897</v>
       </c>
@@ -2779,7 +2778,7 @@
         <v>1</v>
       </c>
       <c r="O31">
-        <v>121</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="Q31" s="3">
         <v>45870</v>
@@ -2788,7 +2787,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>45897</v>
       </c>
@@ -2832,7 +2831,7 @@
         <v>2</v>
       </c>
       <c r="O32">
-        <v>213</v>
+        <v>255.6</v>
       </c>
       <c r="Q32" s="3">
         <v>45870</v>
@@ -2841,7 +2840,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>45897</v>
       </c>
@@ -2885,7 +2884,7 @@
         <v>3</v>
       </c>
       <c r="O33">
-        <v>291</v>
+        <v>349.2</v>
       </c>
       <c r="Q33" s="3">
         <v>45870</v>
@@ -2894,7 +2893,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>45897</v>
       </c>
@@ -2938,7 +2937,7 @@
         <v>4</v>
       </c>
       <c r="O34">
-        <v>384</v>
+        <v>460.79999999999995</v>
       </c>
       <c r="Q34" s="3">
         <v>45870</v>
@@ -2947,7 +2946,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>45897</v>
       </c>
@@ -2991,7 +2990,7 @@
         <v>5</v>
       </c>
       <c r="O35">
-        <v>475</v>
+        <v>570</v>
       </c>
       <c r="Q35" s="3">
         <v>45870</v>
@@ -3000,7 +2999,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>45897</v>
       </c>
@@ -3044,7 +3043,7 @@
         <v>6</v>
       </c>
       <c r="O36">
-        <v>564</v>
+        <v>676.8</v>
       </c>
       <c r="Q36" s="3">
         <v>45870</v>
@@ -3053,7 +3052,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>45897</v>
       </c>
@@ -3097,7 +3096,7 @@
         <v>7</v>
       </c>
       <c r="O37">
-        <v>651</v>
+        <v>781.19999999999993</v>
       </c>
       <c r="Q37" s="3">
         <v>45870</v>
@@ -3106,7 +3105,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>45897</v>
       </c>
@@ -3150,7 +3149,7 @@
         <v>8</v>
       </c>
       <c r="O38">
-        <v>736</v>
+        <v>883.19999999999993</v>
       </c>
       <c r="Q38" s="3">
         <v>45870</v>
@@ -3159,7 +3158,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>45897</v>
       </c>
@@ -3203,7 +3202,7 @@
         <v>9</v>
       </c>
       <c r="O39">
-        <v>820</v>
+        <v>984</v>
       </c>
       <c r="Q39" s="3">
         <v>45870</v>
@@ -3212,7 +3211,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>45897</v>
       </c>
@@ -3256,7 +3255,7 @@
         <v>10</v>
       </c>
       <c r="O40">
-        <v>901</v>
+        <v>1081.2</v>
       </c>
       <c r="Q40" s="3">
         <v>45870</v>
@@ -3265,7 +3264,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>45897</v>
       </c>
@@ -3309,7 +3308,7 @@
         <v>11</v>
       </c>
       <c r="O41">
-        <v>981</v>
+        <v>1177.2</v>
       </c>
       <c r="Q41" s="3">
         <v>45870</v>
@@ -3318,7 +3317,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>45897</v>
       </c>
@@ -3362,7 +3361,7 @@
         <v>12</v>
       </c>
       <c r="O42">
-        <v>1058</v>
+        <v>1269.5999999999999</v>
       </c>
       <c r="Q42" s="3">
         <v>45870</v>
@@ -3371,7 +3370,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>45897</v>
       </c>
@@ -3415,7 +3414,7 @@
         <v>13</v>
       </c>
       <c r="O43">
-        <v>1134</v>
+        <v>1360.8</v>
       </c>
       <c r="Q43" s="3">
         <v>45870</v>
@@ -3424,7 +3423,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>45897</v>
       </c>
@@ -3468,7 +3467,7 @@
         <v>14</v>
       </c>
       <c r="O44">
-        <v>1207</v>
+        <v>1448.3999999999999</v>
       </c>
       <c r="Q44" s="3">
         <v>45870</v>
@@ -3477,7 +3476,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>45897</v>
       </c>
@@ -3521,7 +3520,7 @@
         <v>15</v>
       </c>
       <c r="O45">
-        <v>1279</v>
+        <v>1534.8</v>
       </c>
       <c r="Q45" s="3">
         <v>45870</v>
@@ -3530,7 +3529,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45897</v>
       </c>
@@ -3574,7 +3573,7 @@
         <v>16</v>
       </c>
       <c r="O46">
-        <v>1349</v>
+        <v>1618.8</v>
       </c>
       <c r="Q46" s="3">
         <v>45870</v>
@@ -3583,7 +3582,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>45897</v>
       </c>
@@ -3627,7 +3626,7 @@
         <v>17</v>
       </c>
       <c r="O47">
-        <v>1417</v>
+        <v>1700.3999999999999</v>
       </c>
       <c r="Q47" s="3">
         <v>45870</v>
@@ -3636,7 +3635,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>45897</v>
       </c>
@@ -3680,7 +3679,7 @@
         <v>18</v>
       </c>
       <c r="O48">
-        <v>1483</v>
+        <v>1779.6</v>
       </c>
       <c r="Q48" s="3">
         <v>45870</v>
@@ -3689,7 +3688,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>45897</v>
       </c>
@@ -3733,7 +3732,7 @@
         <v>19</v>
       </c>
       <c r="O49">
-        <v>1546</v>
+        <v>1855.1999999999998</v>
       </c>
       <c r="Q49" s="3">
         <v>45870</v>
@@ -3742,7 +3741,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>45897</v>
       </c>
@@ -3786,7 +3785,7 @@
         <v>20</v>
       </c>
       <c r="O50">
-        <v>1608</v>
+        <v>1929.6</v>
       </c>
       <c r="Q50" s="3">
         <v>45870</v>
@@ -3795,7 +3794,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>45897</v>
       </c>
@@ -3839,7 +3838,7 @@
         <v>21</v>
       </c>
       <c r="O51">
-        <v>1669</v>
+        <v>2002.8</v>
       </c>
       <c r="Q51" s="3">
         <v>45870</v>
@@ -3848,7 +3847,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>45897</v>
       </c>
@@ -3892,7 +3891,7 @@
         <v>22</v>
       </c>
       <c r="O52">
-        <v>1727</v>
+        <v>2072.4</v>
       </c>
       <c r="Q52" s="3">
         <v>45870</v>
@@ -3901,7 +3900,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>45897</v>
       </c>
@@ -3945,7 +3944,7 @@
         <v>23</v>
       </c>
       <c r="O53">
-        <v>1783</v>
+        <v>2139.6</v>
       </c>
       <c r="Q53" s="3">
         <v>45870</v>
@@ -3954,7 +3953,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>45897</v>
       </c>
@@ -3998,7 +3997,7 @@
         <v>24</v>
       </c>
       <c r="O54">
-        <v>1837</v>
+        <v>2204.4</v>
       </c>
       <c r="Q54" s="3">
         <v>45870</v>
@@ -4007,7 +4006,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>45897</v>
       </c>
@@ -4051,7 +4050,7 @@
         <v>25</v>
       </c>
       <c r="O55">
-        <v>1889</v>
+        <v>2266.7999999999997</v>
       </c>
       <c r="Q55" s="3">
         <v>45870</v>
@@ -4060,7 +4059,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>45897</v>
       </c>
@@ -4104,7 +4103,7 @@
         <v>26</v>
       </c>
       <c r="O56">
-        <v>1940</v>
+        <v>2328</v>
       </c>
       <c r="Q56" s="3">
         <v>45870</v>
@@ -4154,7 +4153,7 @@
         <v>7</v>
       </c>
       <c r="O57">
-        <v>1993</v>
+        <v>2391.6</v>
       </c>
       <c r="Q57" s="3">
         <v>45870</v>
@@ -4354,7 +4353,7 @@
         <v>7</v>
       </c>
       <c r="O61">
-        <v>1384</v>
+        <v>1660.8</v>
       </c>
       <c r="Q61" s="3">
         <v>45870</v>
@@ -4504,7 +4503,7 @@
         <v>7</v>
       </c>
       <c r="O64">
-        <v>1274</v>
+        <v>1528.8</v>
       </c>
       <c r="Q64" s="3">
         <v>45870</v>
@@ -6113,7 +6112,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>45897</v>
       </c>
@@ -6157,7 +6156,7 @@
         <v>1</v>
       </c>
       <c r="O97">
-        <v>88</v>
+        <v>105.6</v>
       </c>
       <c r="Q97" s="3">
         <v>45870</v>
@@ -6166,7 +6165,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>45897</v>
       </c>
@@ -6210,7 +6209,7 @@
         <v>2</v>
       </c>
       <c r="O98">
-        <v>156</v>
+        <v>187.2</v>
       </c>
       <c r="Q98" s="3">
         <v>45870</v>
@@ -6219,7 +6218,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>45897</v>
       </c>
@@ -6263,7 +6262,7 @@
         <v>3</v>
       </c>
       <c r="O99">
-        <v>212</v>
+        <v>254.39999999999998</v>
       </c>
       <c r="Q99" s="3">
         <v>45870</v>
@@ -6272,7 +6271,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>45897</v>
       </c>
@@ -6316,7 +6315,7 @@
         <v>4</v>
       </c>
       <c r="O100">
-        <v>280</v>
+        <v>336</v>
       </c>
       <c r="Q100" s="3">
         <v>45870</v>
@@ -6325,7 +6324,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>45897</v>
       </c>
@@ -6369,7 +6368,7 @@
         <v>5</v>
       </c>
       <c r="O101">
-        <v>347</v>
+        <v>416.4</v>
       </c>
       <c r="Q101" s="3">
         <v>45870</v>
@@ -6378,7 +6377,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>45897</v>
       </c>
@@ -6422,7 +6421,7 @@
         <v>6</v>
       </c>
       <c r="O102">
-        <v>412</v>
+        <v>494.4</v>
       </c>
       <c r="Q102" s="3">
         <v>45870</v>
@@ -6431,7 +6430,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>45897</v>
       </c>
@@ -6475,7 +6474,7 @@
         <v>7</v>
       </c>
       <c r="O103">
-        <v>476</v>
+        <v>571.19999999999993</v>
       </c>
       <c r="Q103" s="3">
         <v>45870</v>
@@ -6484,7 +6483,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>45897</v>
       </c>
@@ -6528,7 +6527,7 @@
         <v>8</v>
       </c>
       <c r="O104">
-        <v>538</v>
+        <v>645.6</v>
       </c>
       <c r="Q104" s="3">
         <v>45870</v>
@@ -6537,7 +6536,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>45897</v>
       </c>
@@ -6581,7 +6580,7 @@
         <v>9</v>
       </c>
       <c r="O105">
-        <v>599</v>
+        <v>718.8</v>
       </c>
       <c r="Q105" s="3">
         <v>45870</v>
@@ -6590,7 +6589,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>45897</v>
       </c>
@@ -6634,7 +6633,7 @@
         <v>10</v>
       </c>
       <c r="O106">
-        <v>658</v>
+        <v>789.6</v>
       </c>
       <c r="Q106" s="3">
         <v>45870</v>
@@ -6643,7 +6642,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>45897</v>
       </c>
@@ -6687,7 +6686,7 @@
         <v>11</v>
       </c>
       <c r="O107">
-        <v>716</v>
+        <v>859.19999999999993</v>
       </c>
       <c r="Q107" s="3">
         <v>45870</v>
@@ -6696,7 +6695,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>45897</v>
       </c>
@@ -6740,7 +6739,7 @@
         <v>12</v>
       </c>
       <c r="O108">
-        <v>773</v>
+        <v>927.59999999999991</v>
       </c>
       <c r="Q108" s="3">
         <v>45870</v>
@@ -6749,7 +6748,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>45897</v>
       </c>
@@ -6793,7 +6792,7 @@
         <v>13</v>
       </c>
       <c r="O109">
-        <v>828</v>
+        <v>993.59999999999991</v>
       </c>
       <c r="Q109" s="3">
         <v>45870</v>
@@ -6802,7 +6801,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>45897</v>
       </c>
@@ -6846,7 +6845,7 @@
         <v>14</v>
       </c>
       <c r="O110">
-        <v>882</v>
+        <v>1058.3999999999999</v>
       </c>
       <c r="Q110" s="3">
         <v>45870</v>
@@ -6855,7 +6854,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>45897</v>
       </c>
@@ -6899,7 +6898,7 @@
         <v>15</v>
       </c>
       <c r="O111">
-        <v>935</v>
+        <v>1122</v>
       </c>
       <c r="Q111" s="3">
         <v>45870</v>
@@ -6908,7 +6907,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>45897</v>
       </c>
@@ -6952,7 +6951,7 @@
         <v>16</v>
       </c>
       <c r="O112">
-        <v>985</v>
+        <v>1182</v>
       </c>
       <c r="Q112" s="3">
         <v>45870</v>
@@ -6961,7 +6960,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>45897</v>
       </c>
@@ -7005,7 +7004,7 @@
         <v>17</v>
       </c>
       <c r="O113">
-        <v>1035</v>
+        <v>1242</v>
       </c>
       <c r="Q113" s="3">
         <v>45870</v>
@@ -7014,7 +7013,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>45897</v>
       </c>
@@ -7058,7 +7057,7 @@
         <v>18</v>
       </c>
       <c r="O114">
-        <v>1083</v>
+        <v>1299.5999999999999</v>
       </c>
       <c r="Q114" s="3">
         <v>45870</v>
@@ -7067,7 +7066,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>45897</v>
       </c>
@@ -7111,7 +7110,7 @@
         <v>19</v>
       </c>
       <c r="O115">
-        <v>1130</v>
+        <v>1356</v>
       </c>
       <c r="Q115" s="3">
         <v>45870</v>
@@ -7120,7 +7119,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="116" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>45897</v>
       </c>
@@ -7164,7 +7163,7 @@
         <v>20</v>
       </c>
       <c r="O116">
-        <v>1175</v>
+        <v>1410</v>
       </c>
       <c r="Q116" s="3">
         <v>45870</v>
@@ -7173,7 +7172,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="117" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>45897</v>
       </c>
@@ -7217,7 +7216,7 @@
         <v>21</v>
       </c>
       <c r="O117">
-        <v>1219</v>
+        <v>1462.8</v>
       </c>
       <c r="Q117" s="3">
         <v>45870</v>
@@ -7226,7 +7225,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>45897</v>
       </c>
@@ -7270,7 +7269,7 @@
         <v>22</v>
       </c>
       <c r="O118">
-        <v>1262</v>
+        <v>1514.3999999999999</v>
       </c>
       <c r="Q118" s="3">
         <v>45870</v>
@@ -7279,7 +7278,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="119" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>45897</v>
       </c>
@@ -7323,7 +7322,7 @@
         <v>23</v>
       </c>
       <c r="O119">
-        <v>1303</v>
+        <v>1563.6</v>
       </c>
       <c r="Q119" s="3">
         <v>45870</v>
@@ -7332,7 +7331,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>45897</v>
       </c>
@@ -7376,7 +7375,7 @@
         <v>24</v>
       </c>
       <c r="O120">
-        <v>1342</v>
+        <v>1610.3999999999999</v>
       </c>
       <c r="Q120" s="3">
         <v>45870</v>
@@ -7385,7 +7384,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>45897</v>
       </c>
@@ -7429,7 +7428,7 @@
         <v>25</v>
       </c>
       <c r="O121">
-        <v>1381</v>
+        <v>1657.2</v>
       </c>
       <c r="Q121" s="3">
         <v>45870</v>
@@ -7438,7 +7437,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>45897</v>
       </c>
@@ -7482,7 +7481,7 @@
         <v>26</v>
       </c>
       <c r="O122">
-        <v>1417</v>
+        <v>1700.3999999999999</v>
       </c>
       <c r="Q122" s="3">
         <v>45870</v>
@@ -7532,7 +7531,7 @@
         <v>7</v>
       </c>
       <c r="O123">
-        <v>1119</v>
+        <v>1342.8</v>
       </c>
       <c r="Q123" s="3">
         <v>45870</v>
@@ -7541,7 +7540,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>45897</v>
       </c>
@@ -7585,7 +7584,7 @@
         <v>1</v>
       </c>
       <c r="O124">
-        <v>102</v>
+        <v>122.39999999999999</v>
       </c>
       <c r="Q124" s="3">
         <v>45870</v>
@@ -7594,7 +7593,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>45897</v>
       </c>
@@ -7638,7 +7637,7 @@
         <v>2</v>
       </c>
       <c r="O125">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="Q125" s="3">
         <v>45870</v>
@@ -7647,7 +7646,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>45897</v>
       </c>
@@ -7691,7 +7690,7 @@
         <v>3</v>
       </c>
       <c r="O126">
-        <v>246</v>
+        <v>295.2</v>
       </c>
       <c r="Q126" s="3">
         <v>45870</v>
@@ -7700,7 +7699,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="127" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>45897</v>
       </c>
@@ -7744,7 +7743,7 @@
         <v>4</v>
       </c>
       <c r="O127">
-        <v>324</v>
+        <v>388.8</v>
       </c>
       <c r="Q127" s="3">
         <v>45870</v>
@@ -7753,7 +7752,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="128" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>45897</v>
       </c>
@@ -7797,7 +7796,7 @@
         <v>5</v>
       </c>
       <c r="O128">
-        <v>401</v>
+        <v>481.2</v>
       </c>
       <c r="Q128" s="3">
         <v>45870</v>
@@ -7806,7 +7805,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="129" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>45897</v>
       </c>
@@ -7850,7 +7849,7 @@
         <v>6</v>
       </c>
       <c r="O129">
-        <v>477</v>
+        <v>572.4</v>
       </c>
       <c r="Q129" s="3">
         <v>45870</v>
@@ -7859,7 +7858,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="130" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>45897</v>
       </c>
@@ -7903,7 +7902,7 @@
         <v>7</v>
       </c>
       <c r="O130">
-        <v>550</v>
+        <v>660</v>
       </c>
       <c r="Q130" s="3">
         <v>45870</v>
@@ -7912,7 +7911,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="131" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>45897</v>
       </c>
@@ -7956,7 +7955,7 @@
         <v>8</v>
       </c>
       <c r="O131">
-        <v>622</v>
+        <v>746.4</v>
       </c>
       <c r="Q131" s="3">
         <v>45870</v>
@@ -7965,7 +7964,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="132" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>45897</v>
       </c>
@@ -8009,7 +8008,7 @@
         <v>9</v>
       </c>
       <c r="O132">
-        <v>693</v>
+        <v>831.6</v>
       </c>
       <c r="Q132" s="3">
         <v>45870</v>
@@ -8018,7 +8017,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="133" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>45897</v>
       </c>
@@ -8062,7 +8061,7 @@
         <v>10</v>
       </c>
       <c r="O133">
-        <v>762</v>
+        <v>914.4</v>
       </c>
       <c r="Q133" s="3">
         <v>45870</v>
@@ -8071,7 +8070,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="134" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>45897</v>
       </c>
@@ -8115,7 +8114,7 @@
         <v>11</v>
       </c>
       <c r="O134">
-        <v>829</v>
+        <v>994.8</v>
       </c>
       <c r="Q134" s="3">
         <v>45870</v>
@@ -8124,7 +8123,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="135" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>45897</v>
       </c>
@@ -8168,7 +8167,7 @@
         <v>12</v>
       </c>
       <c r="O135">
-        <v>894</v>
+        <v>1072.8</v>
       </c>
       <c r="Q135" s="3">
         <v>45870</v>
@@ -8177,7 +8176,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="136" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>45897</v>
       </c>
@@ -8221,7 +8220,7 @@
         <v>13</v>
       </c>
       <c r="O136">
-        <v>958</v>
+        <v>1149.5999999999999</v>
       </c>
       <c r="Q136" s="3">
         <v>45870</v>
@@ -8230,7 +8229,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="137" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>45897</v>
       </c>
@@ -8274,7 +8273,7 @@
         <v>14</v>
       </c>
       <c r="O137">
-        <v>1020</v>
+        <v>1224</v>
       </c>
       <c r="Q137" s="3">
         <v>45870</v>
@@ -8283,7 +8282,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="138" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>45897</v>
       </c>
@@ -8327,7 +8326,7 @@
         <v>15</v>
       </c>
       <c r="O138">
-        <v>1081</v>
+        <v>1297.2</v>
       </c>
       <c r="Q138" s="3">
         <v>45870</v>
@@ -8336,7 +8335,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="139" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>45897</v>
       </c>
@@ -8380,7 +8379,7 @@
         <v>16</v>
       </c>
       <c r="O139">
-        <v>1140</v>
+        <v>1368</v>
       </c>
       <c r="Q139" s="3">
         <v>45870</v>
@@ -8389,7 +8388,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="140" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>45897</v>
       </c>
@@ -8433,7 +8432,7 @@
         <v>17</v>
       </c>
       <c r="O140">
-        <v>1197</v>
+        <v>1436.3999999999999</v>
       </c>
       <c r="Q140" s="3">
         <v>45870</v>
@@ -8442,7 +8441,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="141" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>45897</v>
       </c>
@@ -8486,7 +8485,7 @@
         <v>18</v>
       </c>
       <c r="O141">
-        <v>1253</v>
+        <v>1503.6</v>
       </c>
       <c r="Q141" s="3">
         <v>45870</v>
@@ -8495,7 +8494,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="142" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>45897</v>
       </c>
@@ -8539,7 +8538,7 @@
         <v>19</v>
       </c>
       <c r="O142">
-        <v>1307</v>
+        <v>1568.3999999999999</v>
       </c>
       <c r="Q142" s="3">
         <v>45870</v>
@@ -8548,7 +8547,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="143" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>45897</v>
       </c>
@@ -8592,7 +8591,7 @@
         <v>20</v>
       </c>
       <c r="O143">
-        <v>1359</v>
+        <v>1630.8</v>
       </c>
       <c r="Q143" s="3">
         <v>45870</v>
@@ -8601,7 +8600,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="144" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>45897</v>
       </c>
@@ -8645,7 +8644,7 @@
         <v>21</v>
       </c>
       <c r="O144">
-        <v>1410</v>
+        <v>1692</v>
       </c>
       <c r="Q144" s="3">
         <v>45870</v>
@@ -8654,7 +8653,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="145" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>45897</v>
       </c>
@@ -8698,7 +8697,7 @@
         <v>22</v>
       </c>
       <c r="O145">
-        <v>1459</v>
+        <v>1750.8</v>
       </c>
       <c r="Q145" s="3">
         <v>45870</v>
@@ -8707,7 +8706,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="146" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>45897</v>
       </c>
@@ -8751,7 +8750,7 @@
         <v>23</v>
       </c>
       <c r="O146">
-        <v>1507</v>
+        <v>1808.3999999999999</v>
       </c>
       <c r="Q146" s="3">
         <v>45870</v>
@@ -8760,7 +8759,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="147" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>45897</v>
       </c>
@@ -8804,7 +8803,7 @@
         <v>24</v>
       </c>
       <c r="O147">
-        <v>1553</v>
+        <v>1863.6</v>
       </c>
       <c r="Q147" s="3">
         <v>45870</v>
@@ -8813,7 +8812,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="148" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>45897</v>
       </c>
@@ -8857,7 +8856,7 @@
         <v>25</v>
       </c>
       <c r="O148">
-        <v>1597</v>
+        <v>1916.3999999999999</v>
       </c>
       <c r="Q148" s="3">
         <v>45870</v>
@@ -8866,7 +8865,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="149" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>45897</v>
       </c>
@@ -8910,7 +8909,7 @@
         <v>26</v>
       </c>
       <c r="O149">
-        <v>1639</v>
+        <v>1966.8</v>
       </c>
       <c r="Q149" s="3">
         <v>45870</v>
@@ -8960,7 +8959,7 @@
         <v>7</v>
       </c>
       <c r="O150">
-        <v>1222</v>
+        <v>1466.3999999999999</v>
       </c>
       <c r="Q150" s="3">
         <v>45870</v>
@@ -8969,7 +8968,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="151" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>45897</v>
       </c>
@@ -9013,7 +9012,7 @@
         <v>1</v>
       </c>
       <c r="O151">
-        <v>97</v>
+        <v>116.39999999999999</v>
       </c>
       <c r="Q151" s="3">
         <v>45870</v>
@@ -9022,7 +9021,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="152" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>45897</v>
       </c>
@@ -9066,7 +9065,7 @@
         <v>2</v>
       </c>
       <c r="O152">
-        <v>171</v>
+        <v>205.2</v>
       </c>
       <c r="Q152" s="3">
         <v>45870</v>
@@ -9075,7 +9074,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="153" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>45897</v>
       </c>
@@ -9119,7 +9118,7 @@
         <v>3</v>
       </c>
       <c r="O153">
-        <v>234</v>
+        <v>280.8</v>
       </c>
       <c r="Q153" s="3">
         <v>45870</v>
@@ -9128,7 +9127,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="154" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>45897</v>
       </c>
@@ -9172,7 +9171,7 @@
         <v>4</v>
       </c>
       <c r="O154">
-        <v>308</v>
+        <v>369.59999999999997</v>
       </c>
       <c r="Q154" s="3">
         <v>45870</v>
@@ -9181,7 +9180,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="155" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>45897</v>
       </c>
@@ -9225,7 +9224,7 @@
         <v>5</v>
       </c>
       <c r="O155">
-        <v>382</v>
+        <v>458.4</v>
       </c>
       <c r="Q155" s="3">
         <v>45870</v>
@@ -9234,7 +9233,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="156" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>45897</v>
       </c>
@@ -9278,7 +9277,7 @@
         <v>6</v>
       </c>
       <c r="O156">
-        <v>453</v>
+        <v>543.6</v>
       </c>
       <c r="Q156" s="3">
         <v>45870</v>
@@ -9287,7 +9286,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="157" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>45897</v>
       </c>
@@ -9331,7 +9330,7 @@
         <v>7</v>
       </c>
       <c r="O157">
-        <v>523</v>
+        <v>627.6</v>
       </c>
       <c r="Q157" s="3">
         <v>45870</v>
@@ -9340,7 +9339,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="158" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>45897</v>
       </c>
@@ -9384,7 +9383,7 @@
         <v>8</v>
       </c>
       <c r="O158">
-        <v>592</v>
+        <v>710.4</v>
       </c>
       <c r="Q158" s="3">
         <v>45870</v>
@@ -9393,7 +9392,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="159" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>45897</v>
       </c>
@@ -9437,7 +9436,7 @@
         <v>9</v>
       </c>
       <c r="O159">
-        <v>659</v>
+        <v>790.8</v>
       </c>
       <c r="Q159" s="3">
         <v>45870</v>
@@ -9446,7 +9445,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="160" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>45897</v>
       </c>
@@ -9490,7 +9489,7 @@
         <v>10</v>
       </c>
       <c r="O160">
-        <v>724</v>
+        <v>868.8</v>
       </c>
       <c r="Q160" s="3">
         <v>45870</v>
@@ -9499,7 +9498,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="161" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>45897</v>
       </c>
@@ -9543,7 +9542,7 @@
         <v>11</v>
       </c>
       <c r="O161">
-        <v>788</v>
+        <v>945.59999999999991</v>
       </c>
       <c r="Q161" s="3">
         <v>45870</v>
@@ -9552,7 +9551,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="162" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>45897</v>
       </c>
@@ -9596,7 +9595,7 @@
         <v>12</v>
       </c>
       <c r="O162">
-        <v>851</v>
+        <v>1021.1999999999999</v>
       </c>
       <c r="Q162" s="3">
         <v>45870</v>
@@ -9605,7 +9604,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="163" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>45897</v>
       </c>
@@ -9649,7 +9648,7 @@
         <v>13</v>
       </c>
       <c r="O163">
-        <v>911</v>
+        <v>1093.2</v>
       </c>
       <c r="Q163" s="3">
         <v>45870</v>
@@ -9658,7 +9657,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="164" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>45897</v>
       </c>
@@ -9702,7 +9701,7 @@
         <v>14</v>
       </c>
       <c r="O164">
-        <v>971</v>
+        <v>1165.2</v>
       </c>
       <c r="Q164" s="3">
         <v>45870</v>
@@ -9711,7 +9710,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="165" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>45897</v>
       </c>
@@ -9755,7 +9754,7 @@
         <v>15</v>
       </c>
       <c r="O165">
-        <v>1028</v>
+        <v>1233.5999999999999</v>
       </c>
       <c r="Q165" s="3">
         <v>45870</v>
@@ -9764,7 +9763,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="166" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>45897</v>
       </c>
@@ -9808,7 +9807,7 @@
         <v>16</v>
       </c>
       <c r="O166">
-        <v>1084</v>
+        <v>1300.8</v>
       </c>
       <c r="Q166" s="3">
         <v>45870</v>
@@ -9817,7 +9816,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="167" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>45897</v>
       </c>
@@ -9861,7 +9860,7 @@
         <v>17</v>
       </c>
       <c r="O167">
-        <v>1139</v>
+        <v>1366.8</v>
       </c>
       <c r="Q167" s="3">
         <v>45870</v>
@@ -9870,7 +9869,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="168" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>45897</v>
       </c>
@@ -9914,7 +9913,7 @@
         <v>18</v>
       </c>
       <c r="O168">
-        <v>1192</v>
+        <v>1430.3999999999999</v>
       </c>
       <c r="Q168" s="3">
         <v>45870</v>
@@ -9923,7 +9922,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="169" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>45897</v>
       </c>
@@ -9967,7 +9966,7 @@
         <v>19</v>
       </c>
       <c r="O169">
-        <v>1243</v>
+        <v>1491.6</v>
       </c>
       <c r="Q169" s="3">
         <v>45870</v>
@@ -9976,7 +9975,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="170" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>45897</v>
       </c>
@@ -10020,7 +10019,7 @@
         <v>20</v>
       </c>
       <c r="O170">
-        <v>1293</v>
+        <v>1551.6</v>
       </c>
       <c r="Q170" s="3">
         <v>45870</v>
@@ -10029,7 +10028,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="171" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>45897</v>
       </c>
@@ -10073,7 +10072,7 @@
         <v>21</v>
       </c>
       <c r="O171">
-        <v>1341</v>
+        <v>1609.2</v>
       </c>
       <c r="Q171" s="3">
         <v>45870</v>
@@ -10082,7 +10081,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="172" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>45897</v>
       </c>
@@ -10126,7 +10125,7 @@
         <v>22</v>
       </c>
       <c r="O172">
-        <v>1388</v>
+        <v>1665.6</v>
       </c>
       <c r="Q172" s="3">
         <v>45870</v>
@@ -10135,7 +10134,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="173" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>45897</v>
       </c>
@@ -10179,7 +10178,7 @@
         <v>23</v>
       </c>
       <c r="O173">
-        <v>1433</v>
+        <v>1719.6</v>
       </c>
       <c r="Q173" s="3">
         <v>45870</v>
@@ -10188,7 +10187,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="174" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>45897</v>
       </c>
@@ -10232,7 +10231,7 @@
         <v>24</v>
       </c>
       <c r="O174">
-        <v>1477</v>
+        <v>1772.3999999999999</v>
       </c>
       <c r="Q174" s="3">
         <v>45870</v>
@@ -10241,7 +10240,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="175" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>45897</v>
       </c>
@@ -10285,7 +10284,7 @@
         <v>25</v>
       </c>
       <c r="O175">
-        <v>1519</v>
+        <v>1822.8</v>
       </c>
       <c r="Q175" s="3">
         <v>45870</v>
@@ -10294,7 +10293,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="176" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>45897</v>
       </c>
@@ -10338,7 +10337,7 @@
         <v>26</v>
       </c>
       <c r="O176">
-        <v>1559</v>
+        <v>1870.8</v>
       </c>
       <c r="Q176" s="3">
         <v>45870</v>
@@ -10388,7 +10387,7 @@
         <v>7</v>
       </c>
       <c r="O177">
-        <v>929</v>
+        <v>1114.8</v>
       </c>
       <c r="Q177" s="3">
         <v>45870</v>
@@ -10438,7 +10437,7 @@
         <v>7</v>
       </c>
       <c r="O178">
-        <v>4474</v>
+        <v>5368.8</v>
       </c>
       <c r="Q178" s="3">
         <v>45870</v>
@@ -10488,7 +10487,7 @@
         <v>7</v>
       </c>
       <c r="O179">
-        <v>5798</v>
+        <v>6957.5999999999995</v>
       </c>
       <c r="Q179" s="3">
         <v>45870</v>
@@ -10497,7 +10496,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="180" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <v>45897</v>
       </c>
@@ -10541,7 +10540,7 @@
         <v>1</v>
       </c>
       <c r="O180">
-        <v>117</v>
+        <v>140.4</v>
       </c>
       <c r="Q180" s="3">
         <v>45870</v>
@@ -10550,7 +10549,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="181" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>45897</v>
       </c>
@@ -10594,7 +10593,7 @@
         <v>2</v>
       </c>
       <c r="O181">
-        <v>207</v>
+        <v>248.39999999999998</v>
       </c>
       <c r="Q181" s="3">
         <v>45870</v>
@@ -10603,7 +10602,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="182" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <v>45897</v>
       </c>
@@ -10647,7 +10646,7 @@
         <v>3</v>
       </c>
       <c r="O182">
-        <v>282</v>
+        <v>338.4</v>
       </c>
       <c r="Q182" s="3">
         <v>45870</v>
@@ -10656,7 +10655,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="183" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
         <v>45897</v>
       </c>
@@ -10700,7 +10699,7 @@
         <v>4</v>
       </c>
       <c r="O183">
-        <v>372</v>
+        <v>446.4</v>
       </c>
       <c r="Q183" s="3">
         <v>45870</v>
@@ -10709,7 +10708,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="184" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
         <v>45897</v>
       </c>
@@ -10753,7 +10752,7 @@
         <v>5</v>
       </c>
       <c r="O184">
-        <v>460</v>
+        <v>552</v>
       </c>
       <c r="Q184" s="3">
         <v>45870</v>
@@ -10762,7 +10761,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="185" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
         <v>45897</v>
       </c>
@@ -10806,7 +10805,7 @@
         <v>6</v>
       </c>
       <c r="O185">
-        <v>547</v>
+        <v>656.4</v>
       </c>
       <c r="Q185" s="3">
         <v>45870</v>
@@ -10815,7 +10814,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="186" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>45897</v>
       </c>
@@ -10859,7 +10858,7 @@
         <v>7</v>
       </c>
       <c r="O186">
-        <v>631</v>
+        <v>757.19999999999993</v>
       </c>
       <c r="Q186" s="3">
         <v>45870</v>
@@ -10868,7 +10867,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="187" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
         <v>45897</v>
       </c>
@@ -10912,7 +10911,7 @@
         <v>8</v>
       </c>
       <c r="O187">
-        <v>714</v>
+        <v>856.8</v>
       </c>
       <c r="Q187" s="3">
         <v>45870</v>
@@ -10921,7 +10920,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="188" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>45897</v>
       </c>
@@ -10965,7 +10964,7 @@
         <v>9</v>
       </c>
       <c r="O188">
-        <v>795</v>
+        <v>954</v>
       </c>
       <c r="Q188" s="3">
         <v>45870</v>
@@ -10974,7 +10973,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="189" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
         <v>45897</v>
       </c>
@@ -11018,7 +11017,7 @@
         <v>10</v>
       </c>
       <c r="O189">
-        <v>874</v>
+        <v>1048.8</v>
       </c>
       <c r="Q189" s="3">
         <v>45870</v>
@@ -11027,7 +11026,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="190" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>45897</v>
       </c>
@@ -11071,7 +11070,7 @@
         <v>11</v>
       </c>
       <c r="O190">
-        <v>951</v>
+        <v>1141.2</v>
       </c>
       <c r="Q190" s="3">
         <v>45870</v>
@@ -11080,7 +11079,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="191" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
         <v>45897</v>
       </c>
@@ -11124,7 +11123,7 @@
         <v>12</v>
       </c>
       <c r="O191">
-        <v>1026</v>
+        <v>1231.2</v>
       </c>
       <c r="Q191" s="3">
         <v>45870</v>
@@ -11133,7 +11132,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="192" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>45897</v>
       </c>
@@ -11177,7 +11176,7 @@
         <v>13</v>
       </c>
       <c r="O192">
-        <v>1099</v>
+        <v>1318.8</v>
       </c>
       <c r="Q192" s="3">
         <v>45870</v>
@@ -11186,7 +11185,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="193" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>45897</v>
       </c>
@@ -11230,7 +11229,7 @@
         <v>14</v>
       </c>
       <c r="O193">
-        <v>1171</v>
+        <v>1405.2</v>
       </c>
       <c r="Q193" s="3">
         <v>45870</v>
@@ -11239,7 +11238,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="194" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>45897</v>
       </c>
@@ -11283,7 +11282,7 @@
         <v>15</v>
       </c>
       <c r="O194">
-        <v>1240</v>
+        <v>1488</v>
       </c>
       <c r="Q194" s="3">
         <v>45870</v>
@@ -11292,7 +11291,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="195" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
         <v>45897</v>
       </c>
@@ -11336,7 +11335,7 @@
         <v>16</v>
       </c>
       <c r="O195">
-        <v>1308</v>
+        <v>1569.6</v>
       </c>
       <c r="Q195" s="3">
         <v>45870</v>
@@ -11345,7 +11344,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="196" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
         <v>45897</v>
       </c>
@@ -11389,7 +11388,7 @@
         <v>17</v>
       </c>
       <c r="O196">
-        <v>1373</v>
+        <v>1647.6</v>
       </c>
       <c r="Q196" s="3">
         <v>45870</v>
@@ -11398,7 +11397,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="197" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
         <v>45897</v>
       </c>
@@ -11442,7 +11441,7 @@
         <v>18</v>
       </c>
       <c r="O197">
-        <v>1437</v>
+        <v>1724.3999999999999</v>
       </c>
       <c r="Q197" s="3">
         <v>45870</v>
@@ -11451,7 +11450,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="198" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>45897</v>
       </c>
@@ -11495,7 +11494,7 @@
         <v>19</v>
       </c>
       <c r="O198">
-        <v>1499</v>
+        <v>1798.8</v>
       </c>
       <c r="Q198" s="3">
         <v>45870</v>
@@ -11504,7 +11503,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="199" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
         <v>45897</v>
       </c>
@@ -11548,7 +11547,7 @@
         <v>20</v>
       </c>
       <c r="O199">
-        <v>1599</v>
+        <v>1918.8</v>
       </c>
       <c r="Q199" s="3">
         <v>45870</v>
@@ -11557,7 +11556,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="200" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>45897</v>
       </c>
@@ -11601,7 +11600,7 @@
         <v>21</v>
       </c>
       <c r="O200">
-        <v>1618</v>
+        <v>1941.6</v>
       </c>
       <c r="Q200" s="3">
         <v>45870</v>
@@ -11610,7 +11609,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="201" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
         <v>45897</v>
       </c>
@@ -11654,7 +11653,7 @@
         <v>22</v>
       </c>
       <c r="O201">
-        <v>1674</v>
+        <v>2008.8</v>
       </c>
       <c r="Q201" s="3">
         <v>45870</v>
@@ -11663,7 +11662,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="202" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
         <v>45897</v>
       </c>
@@ -11707,7 +11706,7 @@
         <v>23</v>
       </c>
       <c r="O202">
-        <v>1729</v>
+        <v>2074.7999999999997</v>
       </c>
       <c r="Q202" s="3">
         <v>45870</v>
@@ -11716,7 +11715,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="203" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
         <v>45897</v>
       </c>
@@ -11760,7 +11759,7 @@
         <v>24</v>
       </c>
       <c r="O203">
-        <v>1781</v>
+        <v>2137.1999999999998</v>
       </c>
       <c r="Q203" s="3">
         <v>45870</v>
@@ -11769,7 +11768,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="204" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <v>45897</v>
       </c>
@@ -11813,7 +11812,7 @@
         <v>25</v>
       </c>
       <c r="O204">
-        <v>1832</v>
+        <v>2198.4</v>
       </c>
       <c r="Q204" s="3">
         <v>45870</v>
@@ -11822,7 +11821,7 @@
         <v>45930</v>
       </c>
     </row>
-    <row r="205" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
         <v>45897</v>
       </c>
@@ -11866,7 +11865,7 @@
         <v>26</v>
       </c>
       <c r="O205">
-        <v>1881</v>
+        <v>2257.1999999999998</v>
       </c>
       <c r="Q205" s="3">
         <v>45870</v>
@@ -11916,7 +11915,7 @@
         <v>7</v>
       </c>
       <c r="O206">
-        <v>1996</v>
+        <v>2395.1999999999998</v>
       </c>
       <c r="Q206" s="3">
         <v>45870</v>
@@ -11966,7 +11965,7 @@
         <v>7</v>
       </c>
       <c r="O207">
-        <v>1955</v>
+        <v>2346</v>
       </c>
       <c r="Q207" s="3">
         <v>45870</v>
@@ -12016,7 +12015,7 @@
         <v>7</v>
       </c>
       <c r="O208">
-        <v>1545</v>
+        <v>1854</v>
       </c>
       <c r="Q208" s="3">
         <v>45870</v>
@@ -12026,15 +12025,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:P208" xr:uid="{10451EBB-E7E6-48DF-A4E4-B1A4C8B491EA}">
-    <filterColumn colId="11">
-      <filters>
-        <filter val="Drayage"/>
-        <filter val="FTL"/>
-        <filter val="FTL53"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:P208" xr:uid="{10451EBB-E7E6-48DF-A4E4-B1A4C8B491EA}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>